--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2971777.927886524</v>
+        <v>2969525.848175317</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>124.2781875329251</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>31.37046952385636</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247499</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734099341</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>83.3272786184945</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>247.7078587379134</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>50.10896315666681</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>175.687232638878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>17.48565126025529</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>117.4014735002805</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>170.7304930065917</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>41.96425921496945</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>62.33347093294454</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386351</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634788</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>122.6028762599942</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
     <row r="14">
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187843</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>1.799772605715268</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695349</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>78.91051008677961</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.01576915440816</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560513</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,13 +2248,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289879</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>82.52140782073276</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986381</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877918</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997914</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3955,10 +3955,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>49.48749137895456</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832882</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1295.236214140707</v>
+        <v>1311.909787855436</v>
       </c>
       <c r="C2" t="n">
-        <v>1295.236214140707</v>
+        <v>1311.909787855436</v>
       </c>
       <c r="D2" t="n">
-        <v>936.9705155339568</v>
+        <v>953.6440892486851</v>
       </c>
       <c r="E2" t="n">
-        <v>551.1822629357125</v>
+        <v>828.1105664881546</v>
       </c>
       <c r="F2" t="n">
-        <v>140.196358146105</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927148</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180641</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180641</v>
+        <v>1698.509627919557</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204829</v>
+        <v>1698.509627919557</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.09613355694</v>
+        <v>941.5438544811061</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275813</v>
+        <v>767.0908251999791</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614562</v>
+        <v>618.1564155387279</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609106</v>
+        <v>458.9189605332724</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635991</v>
+        <v>312.3844025601574</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686091</v>
+        <v>176.0213023927755</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>85.51940803064296</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992582</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410636</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962573</v>
+        <v>2407.411984886739</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533339</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201688</v>
+        <v>2564.909189125854</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695168</v>
+        <v>2435.471302619334</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507439</v>
+        <v>2014.760455431605</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275696</v>
+        <v>1779.608347199862</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547495</v>
+        <v>1525.370990471661</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341962</v>
+        <v>1317.519490266128</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577008</v>
+        <v>1109.759191501174</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>478.9911633238872</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="C4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962276</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372934</v>
+        <v>176.645724237293</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596501</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588477</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886951</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068846</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596431</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181838</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181838</v>
       </c>
       <c r="S4" t="n">
-        <v>729.2011216450119</v>
+        <v>729.2011216450101</v>
       </c>
       <c r="T4" t="n">
-        <v>729.2011216450119</v>
+        <v>645.0321533435005</v>
       </c>
       <c r="U4" t="n">
-        <v>729.2011216450119</v>
+        <v>355.929286469144</v>
       </c>
       <c r="V4" t="n">
-        <v>478.9911633238872</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W4" t="n">
-        <v>478.9911633238872</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="X4" t="n">
-        <v>478.9911633238872</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="Y4" t="n">
-        <v>478.9911633238872</v>
+        <v>66.51211643218338</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1767.878520285691</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>1767.878520285691</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>1409.61282167894</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,43 +4574,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136267</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792697</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522582</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261502</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285691</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4620,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
         <v>765.1517452158134</v>
@@ -4656,40 +4656,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>692.8974549201681</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>692.8974549201681</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199102</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>527.3220873375171</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181855</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181855</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181855</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181855</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181855</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X7" t="n">
-        <v>692.8974549201681</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>692.8974549201681</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.150970528558</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>971.281412372397</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>585.4931597741527</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>578.5476590249492</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4802,16 +4802,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4841,13 +4841,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2382.355900829572</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2008.890142568492</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1618.75081059268</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="11">
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797183</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>542.9134462654478</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.50206557031</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>542.9134462654478</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400703</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121634</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121634</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121634</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121634</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270434</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.50206557031</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192713</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111725</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,16 +5528,16 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703798</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969314</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5741,16 +5741,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075798</v>
@@ -5765,34 +5765,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797183</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637304</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444888</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684175</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>719.5738700011939</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>550.637687073287</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>378.6527890600114</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>231.762841562101</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1894.106123115829</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1639.421634909942</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1350.004464872981</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1122.014913974964</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>901.2223348314336</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>427.7414352191925</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>1025.119922845744</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1652.717886400351</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2204.627616639638</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1025.119922845744</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1652.717886400351</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2204.627616639638</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,25 +6598,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6689,58 +6689,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1025.119922845744</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1652.717886400351</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2204.627616639638</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6917,67 +6917,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>119.2902967703784</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,10 +7424,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7491,25 +7491,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>692.9625378792909</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1320.560501433898</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>1872.470231673185</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2529.355041543135</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>718.5507239167111</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>549.6145409888043</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7603,16 +7603,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1638.398488825459</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1348.981318788498</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>1120.991767890481</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>900.1991887469509</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,16 +7725,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57.22910392194312</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4949402405086</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>138.4949402405086</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>28.95742156328097</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>203.6630665685114</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991733</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25843,10 +25843,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>202.6501519448734</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>740460.6509162887</v>
+        <v>740460.6509162888</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>740460.6509162887</v>
+        <v>740460.6509162888</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>740460.6509162887</v>
+        <v>740460.6509162886</v>
       </c>
     </row>
     <row r="15">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="J2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="K2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.609736506</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365059</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365059</v>
@@ -26353,7 +26353,7 @@
         <v>686074.6097365059</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365058</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>7.680563094254467e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073547</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405247</v>
+        <v>93596.74410405272</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405246</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186744</v>
+        <v>14826.69604186735</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186746</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186744</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186746</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
+        <v>14826.69604186731</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14826.69604186739</v>
+      </c>
+      <c r="L4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="K4" t="n">
-        <v>14826.69604186736</v>
-      </c>
-      <c r="L4" t="n">
-        <v>14826.69604186732</v>
-      </c>
       <c r="M4" t="n">
-        <v>14826.69604186733</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="N4" t="n">
         <v>14826.69604186736</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613932</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-832389.9260083982</v>
+        <v>-832389.926008397</v>
       </c>
       <c r="C6" t="n">
+        <v>496354.8197191942</v>
+      </c>
+      <c r="D6" t="n">
         <v>496354.8197191951</v>
       </c>
-      <c r="D6" t="n">
-        <v>496354.8197191954</v>
-      </c>
       <c r="E6" t="n">
-        <v>244712.9220633762</v>
+        <v>244678.1841379404</v>
       </c>
       <c r="F6" t="n">
-        <v>570125.3838707309</v>
+        <v>570090.6459452955</v>
       </c>
       <c r="G6" t="n">
-        <v>570125.3838707309</v>
+        <v>570090.6459452957</v>
       </c>
       <c r="H6" t="n">
-        <v>570125.3838707309</v>
+        <v>570090.6459452956</v>
       </c>
       <c r="I6" t="n">
-        <v>570125.3838707311</v>
+        <v>570090.6459452957</v>
       </c>
       <c r="J6" t="n">
-        <v>352594.1814734537</v>
+        <v>352559.4435480182</v>
       </c>
       <c r="K6" t="n">
-        <v>570125.3838707312</v>
+        <v>570090.6459452959</v>
       </c>
       <c r="L6" t="n">
-        <v>570125.3838707313</v>
+        <v>570090.6459452957</v>
       </c>
       <c r="M6" t="n">
-        <v>485070.3559352197</v>
+        <v>485035.6180097836</v>
       </c>
       <c r="N6" t="n">
-        <v>570125.3838707315</v>
+        <v>570090.6459452958</v>
       </c>
       <c r="O6" t="n">
-        <v>570125.3838707316</v>
+        <v>570090.6459452958</v>
       </c>
       <c r="P6" t="n">
-        <v>570125.3838707315</v>
+        <v>570090.6459452956</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,22 +26735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26811,16 +26811,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,19 +26987,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>257.6521825393366</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>379.5512561295971</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.48334686148155e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,10 +27552,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>136.2216706576747</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>4.429784585914632</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>332.6248785068138</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>206.2431374333838</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27777,19 +27777,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>131.1298217579571</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>168.8103647053323</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>240.1912326468617</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>307.2767095024436</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>189.8041723908835</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,10 +28087,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.736439038534721e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.330580173293129e-12</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31613,7 +31613,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>592.187494140961</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>592.187494140961</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485289</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067244</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32318,31 +32318,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338216</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485289</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704916</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32707,34 +32707,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33263,10 +33263,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P30" t="n">
-        <v>485.927610870024</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33655,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34211,10 +34211,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>169.6252075171357</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.9421752903428</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.3038931996669</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286435</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.123718484038</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230781</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567571</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106919</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014208</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>453.6331143610868</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625074</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>453.6331143610868</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625074</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236318484</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394741</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625074</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561613</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P30" t="n">
-        <v>351.9532034556937</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>23.94570355317173</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
